--- a/target/test-classes/testdata/excels/Adactin Master Test Data.xlsx
+++ b/target/test-classes/testdata/excels/Adactin Master Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\008LiveTechWS\FrameworkAutomation\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64233857-714D-4FFA-A45D-7293867F7F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE1519D-14CB-4435-8932-D798BCFB6602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AAE269A-36AE-4A05-B59D-0356C0209B76}"/>
   </bookViews>
@@ -481,9 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E0E37-BBFC-4391-BD1C-7CC2B4F8DE95}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>

--- a/target/test-classes/testdata/excels/Adactin Master Test Data.xlsx
+++ b/target/test-classes/testdata/excels/Adactin Master Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\008LiveTechWS\FrameworkAutomation\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE1519D-14CB-4435-8932-D798BCFB6602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE408674-9F0D-4520-8326-080B1E8C5D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AAE269A-36AE-4A05-B59D-0356C0209B76}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>expectedTitle</t>
   </si>
   <si>
-    <t>reyaz009</t>
-  </si>
-  <si>
     <t>reyaz123</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>03/01/2024</t>
+  </si>
+  <si>
+    <t>reyaz0806</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E0E37-BBFC-4391-BD1C-7CC2B4F8DE95}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -497,7 +499,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -511,21 +513,21 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -534,44 +536,44 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -583,30 +585,30 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
